--- a/notebook/rdp_report.xlsx
+++ b/notebook/rdp_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAAD016-4BAF-4545-9BD6-7C096A951E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{935DA15A-7507-48C3-BC78-B7CCC4445433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-408" windowWidth="23256" windowHeight="12720" xr2:uid="{4BC50E16-ABEE-4F98-8284-83067DADE36B}"/>
+    <workbookView xWindow="2580" yWindow="1380" windowWidth="19890" windowHeight="11535" xr2:uid="{AEF1BE34-BB7F-4748-BCB4-5FA47DCEEBBD}"/>
   </bookViews>
   <sheets>
     <sheet name="LSEG.L News Data" sheetId="2" r:id="rId1"/>
@@ -78,73 +78,73 @@
     <t>sourceCode</t>
   </si>
   <si>
-    <t>London Stock Exchange Group (LSEG: GBX8,300.0) lifts GBX6.0 on robust volume; +GBX6 [0.1%] Vol Index 1.6 [1 is avg]</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql52rd:0</t>
-  </si>
-  <si>
-    <t>NS:GLOTRA</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group (LSEG: GBX8,300.0) lifts 0.1% against the trend; +GBX6 [0.1%] Vol Index 1.6 [1 is avg]</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql4ydh:0</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql4y8h:0</t>
-  </si>
-  <si>
-    <t>NS:GLOSTO</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql4v54:0</t>
-  </si>
-  <si>
-    <t>Coats Group's Earnings Growth Lags London Stock Exchange Group</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql4gbs:0</t>
-  </si>
-  <si>
-    <t>NS:NEWMAR</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group continues to outperform 3I Group</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql4hcc:0</t>
-  </si>
-  <si>
-    <t>Weekly: London Stock Exchange ADR (LNSTY: $25.95) posts best week in sixteen weeks; +83.8c [3.3%]</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql3xki:0</t>
+    <t>ADR Recap: London Stock Exchange continues to outperform Wolters Kluwer</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqle9br:0</t>
   </si>
   <si>
     <t>NS:GLOROU</t>
   </si>
   <si>
-    <t>London Stock Exchange Group continues to underperform Investec</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql39pt:0</t>
-  </si>
-  <si>
-    <t>London Stock Exchange seeks digital assets director</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql32e4:0</t>
-  </si>
-  <si>
-    <t>NS:CRYBRF</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group (LSEG: GBX8,298.0) increases 0.05% against the trend; +GBX4 [0.05%] Vol Index 1.3 [1 is avg]</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAql2yg6:0</t>
+    <t>Monday November 06, 2023 London Stock Exchange ADR Compendium - A Snapshot as of November 06</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqle2r7:0</t>
+  </si>
+  <si>
+    <t>Monday November 06, 2023 London Stock Exchange ADR: How it compares to other IDRs and ADRs</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqle2sx:0</t>
+  </si>
+  <si>
+    <t>ADR Recap: London Stock Exchange continues to outperform Macquarie Group</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqldlgj:0</t>
+  </si>
+  <si>
+    <t>ADR Recap: London Stock Exchange continues to outperform Hong Kong Exchanges &amp; Clearing</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqld38y:0</t>
+  </si>
+  <si>
+    <t>Monthly: London Stock Exchange ADR (LNSTY: $25.46) increases 2% on weak volume in October 2023</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqlct8r:0</t>
+  </si>
+  <si>
+    <t>ADR Recap: London Stock Exchange continues to outperform Deutsche Boerse</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqlcdv4:0</t>
+  </si>
+  <si>
+    <t>Citigroup Reiterates "Buy" Rating for London Stock Exchange Group (LON:LSEG)</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqlbihx:0</t>
+  </si>
+  <si>
+    <t>NS:COMFIN</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group (LON:LSEG) Stock Rating Reaffirmed by Citigroup</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqlbb13:0</t>
+  </si>
+  <si>
+    <t>NS:WATNEW</t>
+  </si>
+  <si>
+    <t>How London Stock Exchange's dividend compares to China Galaxy</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231106:nNRAqlbeu6:0</t>
   </si>
 </sst>
 </file>
@@ -239,20 +239,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>152421</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>168032</xdr:rowOff>
+      <xdr:rowOff>166127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="MyPlot">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A8A7C6-7633-1A8F-B19E-9548976AF4F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4FF73C-EEDB-EAC3-CDC3-C8DC2A6892FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DA9DE2-7EC5-45E7-A3C2-71EF41C870AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD63981-5CAB-455E-83CB-805B346D9EAC}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -668,35 +668,35 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -718,18 +718,18 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B508C7B-95D1-4C3B-A097-FAA495221281}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7520AD08-1635-4384-B4FB-F87CD556085A}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0"/>
+    <sheetView topLeftCell="A39" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -807,782 +807,782 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B3">
-        <v>7986</v>
+        <v>8092</v>
       </c>
       <c r="C3">
-        <v>7988</v>
+        <v>8094</v>
       </c>
       <c r="D3">
-        <v>8024</v>
+        <v>8018</v>
       </c>
       <c r="E3">
-        <v>8078</v>
+        <v>8108</v>
       </c>
       <c r="F3">
-        <v>7976</v>
+        <v>7970</v>
       </c>
       <c r="G3">
-        <v>8034</v>
+        <v>7987.6666299999997</v>
       </c>
       <c r="H3">
-        <v>4046</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B4">
-        <v>8092</v>
+        <v>8288</v>
       </c>
       <c r="C4">
-        <v>8094</v>
+        <v>8290</v>
       </c>
       <c r="D4">
-        <v>8018</v>
+        <v>8070</v>
       </c>
       <c r="E4">
-        <v>8108</v>
+        <v>8318</v>
       </c>
       <c r="F4">
-        <v>7970</v>
+        <v>8070</v>
       </c>
       <c r="G4">
-        <v>7987.6666299999997</v>
+        <v>8070</v>
       </c>
       <c r="H4">
-        <v>3731</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B5">
-        <v>8288</v>
+        <v>8300</v>
       </c>
       <c r="C5">
-        <v>8290</v>
+        <v>8302</v>
       </c>
       <c r="D5">
-        <v>8070</v>
+        <v>8250</v>
       </c>
       <c r="E5">
-        <v>8318</v>
+        <v>8322</v>
       </c>
       <c r="F5">
-        <v>8070</v>
+        <v>8236</v>
       </c>
       <c r="G5">
-        <v>8070</v>
+        <v>8296</v>
       </c>
       <c r="H5">
-        <v>3862</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B6">
-        <v>8300</v>
+        <v>8306</v>
       </c>
       <c r="C6">
-        <v>8302</v>
+        <v>8308</v>
       </c>
       <c r="D6">
-        <v>8250</v>
+        <v>8344</v>
       </c>
       <c r="E6">
-        <v>8322</v>
+        <v>8344</v>
       </c>
       <c r="F6">
-        <v>8236</v>
+        <v>8266</v>
       </c>
       <c r="G6">
-        <v>8296</v>
+        <v>8308</v>
       </c>
       <c r="H6">
-        <v>2033</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B7">
-        <v>8306</v>
+        <v>8400</v>
       </c>
       <c r="C7">
-        <v>8308</v>
+        <v>8402</v>
       </c>
       <c r="D7">
-        <v>8344</v>
+        <v>8352</v>
       </c>
       <c r="E7">
-        <v>8344</v>
+        <v>8454</v>
       </c>
       <c r="F7">
-        <v>8266</v>
+        <v>8342</v>
       </c>
       <c r="G7">
-        <v>8308</v>
+        <v>8352</v>
       </c>
       <c r="H7">
-        <v>3379</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B8">
-        <v>8400</v>
+        <v>8420</v>
       </c>
       <c r="C8">
-        <v>8402</v>
+        <v>8422</v>
       </c>
       <c r="D8">
-        <v>8352</v>
+        <v>8384</v>
       </c>
       <c r="E8">
-        <v>8454</v>
+        <v>8452</v>
       </c>
       <c r="F8">
-        <v>8342</v>
+        <v>8354</v>
       </c>
       <c r="G8">
-        <v>8352</v>
+        <v>8384</v>
       </c>
       <c r="H8">
-        <v>4732</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B9">
-        <v>8420</v>
+        <v>8312</v>
       </c>
       <c r="C9">
-        <v>8422</v>
+        <v>8314</v>
       </c>
       <c r="D9">
-        <v>8384</v>
+        <v>8426</v>
       </c>
       <c r="E9">
-        <v>8452</v>
+        <v>8434</v>
       </c>
       <c r="F9">
-        <v>8354</v>
+        <v>8300</v>
       </c>
       <c r="G9">
-        <v>8384</v>
+        <v>8426</v>
       </c>
       <c r="H9">
-        <v>2450</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="B10">
-        <v>8312</v>
+        <v>8344</v>
       </c>
       <c r="C10">
-        <v>8314</v>
+        <v>8346</v>
       </c>
       <c r="D10">
-        <v>8426</v>
+        <v>8300</v>
       </c>
       <c r="E10">
-        <v>8434</v>
+        <v>8406</v>
       </c>
       <c r="F10">
         <v>8300</v>
       </c>
       <c r="G10">
-        <v>8426</v>
+        <v>8354</v>
       </c>
       <c r="H10">
-        <v>4607</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B11">
-        <v>8344</v>
+        <v>8398</v>
       </c>
       <c r="C11">
-        <v>8346</v>
+        <v>8402</v>
       </c>
       <c r="D11">
-        <v>8300</v>
+        <v>8328</v>
       </c>
       <c r="E11">
-        <v>8406</v>
+        <v>8418</v>
       </c>
       <c r="F11">
-        <v>8300</v>
+        <v>8270</v>
       </c>
       <c r="G11">
-        <v>8354</v>
+        <v>8328</v>
       </c>
       <c r="H11">
-        <v>2447</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B12">
-        <v>8398</v>
+        <v>8466</v>
       </c>
       <c r="C12">
-        <v>8402</v>
+        <v>8468</v>
       </c>
       <c r="D12">
-        <v>8328</v>
+        <v>8416</v>
       </c>
       <c r="E12">
-        <v>8418</v>
+        <v>8468</v>
       </c>
       <c r="F12">
-        <v>8270</v>
+        <v>8372</v>
       </c>
       <c r="G12">
-        <v>8328</v>
+        <v>8452</v>
       </c>
       <c r="H12">
-        <v>2980</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B13">
-        <v>8466</v>
+        <v>8474</v>
       </c>
       <c r="C13">
-        <v>8468</v>
+        <v>8476</v>
       </c>
       <c r="D13">
-        <v>8416</v>
+        <v>8484</v>
       </c>
       <c r="E13">
-        <v>8468</v>
+        <v>8558</v>
       </c>
       <c r="F13">
-        <v>8372</v>
+        <v>8430</v>
       </c>
       <c r="G13">
-        <v>8452</v>
+        <v>8484</v>
       </c>
       <c r="H13">
-        <v>1987</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B14">
-        <v>8474</v>
+        <v>8526</v>
       </c>
       <c r="C14">
-        <v>8476</v>
+        <v>8528</v>
       </c>
       <c r="D14">
-        <v>8484</v>
+        <v>8464</v>
       </c>
       <c r="E14">
-        <v>8558</v>
+        <v>8564</v>
       </c>
       <c r="F14">
-        <v>8430</v>
+        <v>8464</v>
       </c>
       <c r="G14">
-        <v>8484</v>
+        <v>8528</v>
       </c>
       <c r="H14">
-        <v>3453</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="B15">
-        <v>8526</v>
+        <v>8462</v>
       </c>
       <c r="C15">
-        <v>8528</v>
+        <v>8464</v>
       </c>
       <c r="D15">
-        <v>8464</v>
+        <v>8518</v>
       </c>
       <c r="E15">
-        <v>8564</v>
+        <v>8536</v>
       </c>
       <c r="F15">
-        <v>8464</v>
+        <v>8450</v>
       </c>
       <c r="G15">
-        <v>8528</v>
+        <v>8458</v>
       </c>
       <c r="H15">
-        <v>1873</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B16">
-        <v>8462</v>
+        <v>8344</v>
       </c>
       <c r="C16">
-        <v>8464</v>
+        <v>8346</v>
       </c>
       <c r="D16">
-        <v>8518</v>
+        <v>8448</v>
       </c>
       <c r="E16">
-        <v>8536</v>
+        <v>8484</v>
       </c>
       <c r="F16">
-        <v>8450</v>
+        <v>8278</v>
       </c>
       <c r="G16">
-        <v>8458</v>
+        <v>8336</v>
       </c>
       <c r="H16">
-        <v>1596</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B17">
-        <v>8344</v>
+        <v>8284</v>
       </c>
       <c r="C17">
-        <v>8346</v>
+        <v>8286</v>
       </c>
       <c r="D17">
-        <v>8448</v>
+        <v>8248</v>
       </c>
       <c r="E17">
-        <v>8484</v>
+        <v>8308</v>
       </c>
       <c r="F17">
-        <v>8278</v>
+        <v>8176</v>
       </c>
       <c r="G17">
-        <v>8336</v>
+        <v>8262</v>
       </c>
       <c r="H17">
-        <v>2719</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B18">
-        <v>8284</v>
+        <v>8186</v>
       </c>
       <c r="C18">
-        <v>8286</v>
+        <v>8188</v>
       </c>
       <c r="D18">
-        <v>8248</v>
+        <v>7916</v>
       </c>
       <c r="E18">
-        <v>8308</v>
+        <v>8210</v>
       </c>
       <c r="F18">
-        <v>8176</v>
+        <v>7784</v>
       </c>
       <c r="G18">
-        <v>8262</v>
+        <v>8174</v>
       </c>
       <c r="H18">
-        <v>4025</v>
+        <v>10781</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B19">
-        <v>8186</v>
+        <v>8138</v>
       </c>
       <c r="C19">
-        <v>8188</v>
+        <v>8140</v>
       </c>
       <c r="D19">
-        <v>7916</v>
+        <v>8140</v>
       </c>
       <c r="E19">
-        <v>8210</v>
+        <v>8216</v>
       </c>
       <c r="F19">
-        <v>7784</v>
+        <v>8040</v>
       </c>
       <c r="G19">
-        <v>8174</v>
+        <v>8146</v>
       </c>
       <c r="H19">
-        <v>10781</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="B20">
-        <v>8138</v>
+        <v>8206</v>
       </c>
       <c r="C20">
-        <v>8140</v>
+        <v>8208</v>
       </c>
       <c r="D20">
-        <v>8140</v>
+        <v>8100</v>
       </c>
       <c r="E20">
-        <v>8216</v>
+        <v>8218</v>
       </c>
       <c r="F20">
-        <v>8040</v>
+        <v>8100</v>
       </c>
       <c r="G20">
-        <v>8146</v>
+        <v>8211</v>
       </c>
       <c r="H20">
-        <v>4672</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B21">
-        <v>8206</v>
+        <v>8270</v>
       </c>
       <c r="C21">
-        <v>8208</v>
+        <v>8274</v>
       </c>
       <c r="D21">
-        <v>8100</v>
+        <v>8204</v>
       </c>
       <c r="E21">
-        <v>8218</v>
+        <v>8356</v>
       </c>
       <c r="F21">
-        <v>8100</v>
+        <v>8204</v>
       </c>
       <c r="G21">
-        <v>8211</v>
+        <v>8274</v>
       </c>
       <c r="H21">
-        <v>2419</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B22">
-        <v>8270</v>
+        <v>8254</v>
       </c>
       <c r="C22">
-        <v>8274</v>
+        <v>8256</v>
       </c>
       <c r="D22">
-        <v>8204</v>
+        <v>8344</v>
       </c>
       <c r="E22">
-        <v>8356</v>
+        <v>8348</v>
       </c>
       <c r="F22">
-        <v>8204</v>
+        <v>8200</v>
       </c>
       <c r="G22">
-        <v>8274</v>
+        <v>8344</v>
       </c>
       <c r="H22">
-        <v>3980</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B23">
-        <v>8254</v>
+        <v>8352</v>
       </c>
       <c r="C23">
-        <v>8256</v>
+        <v>8354</v>
       </c>
       <c r="D23">
-        <v>8344</v>
+        <v>8282</v>
       </c>
       <c r="E23">
-        <v>8348</v>
+        <v>8362</v>
       </c>
       <c r="F23">
-        <v>8200</v>
+        <v>8270</v>
       </c>
       <c r="G23">
-        <v>8344</v>
+        <v>8328.4864899999993</v>
       </c>
       <c r="H23">
-        <v>2583</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B24">
-        <v>8352</v>
+        <v>8268</v>
       </c>
       <c r="C24">
-        <v>8354</v>
+        <v>8270</v>
       </c>
       <c r="D24">
-        <v>8282</v>
+        <v>8332</v>
       </c>
       <c r="E24">
-        <v>8362</v>
+        <v>8336</v>
       </c>
       <c r="F24">
-        <v>8270</v>
+        <v>8246</v>
       </c>
       <c r="G24">
-        <v>8328.4864899999993</v>
+        <v>8276</v>
       </c>
       <c r="H24">
-        <v>2387</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="B25">
-        <v>8268</v>
+        <v>8290</v>
       </c>
       <c r="C25">
-        <v>8270</v>
+        <v>8292</v>
       </c>
       <c r="D25">
-        <v>8332</v>
+        <v>8292</v>
       </c>
       <c r="E25">
-        <v>8336</v>
+        <v>8320</v>
       </c>
       <c r="F25">
-        <v>8246</v>
+        <v>8236</v>
       </c>
       <c r="G25">
-        <v>8276</v>
+        <v>8288</v>
       </c>
       <c r="H25">
-        <v>3583</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B26">
-        <v>8290</v>
+        <v>8198</v>
       </c>
       <c r="C26">
-        <v>8292</v>
+        <v>8200</v>
       </c>
       <c r="D26">
-        <v>8292</v>
+        <v>8268</v>
       </c>
       <c r="E26">
-        <v>8320</v>
+        <v>8278</v>
       </c>
       <c r="F26">
-        <v>8236</v>
+        <v>8186</v>
       </c>
       <c r="G26">
-        <v>8288</v>
+        <v>8210.6666700000005</v>
       </c>
       <c r="H26">
-        <v>2361</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B27">
-        <v>8198</v>
+        <v>8158</v>
       </c>
       <c r="C27">
-        <v>8200</v>
+        <v>8160</v>
       </c>
       <c r="D27">
-        <v>8268</v>
+        <v>8154</v>
       </c>
       <c r="E27">
-        <v>8278</v>
+        <v>8208</v>
       </c>
       <c r="F27">
-        <v>8186</v>
+        <v>8138</v>
       </c>
       <c r="G27">
-        <v>8210.6666700000005</v>
+        <v>8168</v>
       </c>
       <c r="H27">
-        <v>4732</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B28">
-        <v>8158</v>
+        <v>8074</v>
       </c>
       <c r="C28">
+        <v>8076</v>
+      </c>
+      <c r="D28">
+        <v>8112</v>
+      </c>
+      <c r="E28">
         <v>8160</v>
       </c>
-      <c r="D28">
-        <v>8154</v>
-      </c>
-      <c r="E28">
-        <v>8208</v>
-      </c>
       <c r="F28">
-        <v>8138</v>
+        <v>8074</v>
       </c>
       <c r="G28">
-        <v>8168</v>
+        <v>8076</v>
       </c>
       <c r="H28">
-        <v>4400</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B29">
-        <v>8074</v>
+        <v>8038</v>
       </c>
       <c r="C29">
-        <v>8076</v>
+        <v>8040</v>
       </c>
       <c r="D29">
-        <v>8112</v>
+        <v>8052</v>
       </c>
       <c r="E29">
-        <v>8160</v>
+        <v>8070</v>
       </c>
       <c r="F29">
-        <v>8074</v>
+        <v>7988</v>
       </c>
       <c r="G29">
-        <v>8076</v>
+        <v>8038</v>
       </c>
       <c r="H29">
-        <v>4555</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="B30">
-        <v>8038</v>
+        <v>8066</v>
       </c>
       <c r="C30">
-        <v>8040</v>
+        <v>8068</v>
       </c>
       <c r="D30">
-        <v>8052</v>
+        <v>8046</v>
       </c>
       <c r="E30">
-        <v>8070</v>
+        <v>8068</v>
       </c>
       <c r="F30">
-        <v>7988</v>
+        <v>8016</v>
       </c>
       <c r="G30">
-        <v>8038</v>
+        <v>8046</v>
       </c>
       <c r="H30">
-        <v>3955</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="B31">
-        <v>8066</v>
+        <v>8040</v>
       </c>
       <c r="C31">
-        <v>8068</v>
+        <v>8042</v>
       </c>
       <c r="D31">
-        <v>8046</v>
+        <v>8106</v>
       </c>
       <c r="E31">
-        <v>8068</v>
+        <v>8120</v>
       </c>
       <c r="F31">
-        <v>8016</v>
+        <v>8004</v>
       </c>
       <c r="G31">
-        <v>8046</v>
+        <v>8106</v>
       </c>
       <c r="H31">
-        <v>4832</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="B32">
-        <v>8040</v>
+        <v>8126</v>
       </c>
       <c r="C32">
-        <v>8042</v>
+        <v>8128</v>
       </c>
       <c r="D32">
-        <v>8106</v>
+        <v>8026</v>
       </c>
       <c r="E32">
-        <v>8120</v>
+        <v>8132</v>
       </c>
       <c r="F32">
-        <v>8004</v>
+        <v>8012</v>
       </c>
       <c r="G32">
-        <v>8106</v>
+        <v>8114</v>
       </c>
       <c r="H32">
-        <v>3840</v>
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/rdp_report.xlsx
+++ b/notebook/rdp_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935DA15A-7507-48C3-BC78-B7CCC4445433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{628560CA-6C98-4240-88AF-3E299BCCAFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1380" windowWidth="19890" windowHeight="11535" xr2:uid="{AEF1BE34-BB7F-4748-BCB4-5FA47DCEEBBD}"/>
+    <workbookView xWindow="1125" yWindow="1545" windowWidth="22710" windowHeight="13275" xr2:uid="{C1C3D441-6D75-464C-A143-6D2C9D4C856A}"/>
   </bookViews>
   <sheets>
     <sheet name="LSEG.L News Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -78,73 +78,70 @@
     <t>sourceCode</t>
   </si>
   <si>
-    <t>ADR Recap: London Stock Exchange continues to outperform Wolters Kluwer</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqle9br:0</t>
-  </si>
-  <si>
-    <t>NS:GLOROU</t>
-  </si>
-  <si>
-    <t>Monday November 06, 2023 London Stock Exchange ADR Compendium - A Snapshot as of November 06</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqle2r7:0</t>
-  </si>
-  <si>
-    <t>Monday November 06, 2023 London Stock Exchange ADR: How it compares to other IDRs and ADRs</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqle2sx:0</t>
-  </si>
-  <si>
-    <t>ADR Recap: London Stock Exchange continues to outperform Macquarie Group</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqldlgj:0</t>
-  </si>
-  <si>
-    <t>ADR Recap: London Stock Exchange continues to outperform Hong Kong Exchanges &amp; Clearing</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqld38y:0</t>
-  </si>
-  <si>
-    <t>Monthly: London Stock Exchange ADR (LNSTY: $25.46) increases 2% on weak volume in October 2023</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqlct8r:0</t>
-  </si>
-  <si>
-    <t>ADR Recap: London Stock Exchange continues to outperform Deutsche Boerse</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqlcdv4:0</t>
-  </si>
-  <si>
-    <t>Citigroup Reiterates "Buy" Rating for London Stock Exchange Group (LON:LSEG)</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqlbihx:0</t>
-  </si>
-  <si>
-    <t>NS:COMFIN</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group (LON:LSEG) Stock Rating Reaffirmed by Citigroup</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqlbb13:0</t>
-  </si>
-  <si>
-    <t>NS:WATNEW</t>
-  </si>
-  <si>
-    <t>How London Stock Exchange's dividend compares to China Galaxy</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231106:nNRAqlbeu6:0</t>
+    <t>London Stock Exchange Group continues to underperform Intermediate Capital</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqll2kb:0</t>
+  </si>
+  <si>
+    <t>NS:NEWMAR</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group continues to underperform M&amp;G</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqlk82m:0</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group's Earnings Growth Outperforms Hargreaves Lansdown</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqlk7t4:0</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group (LSEG: GBX8,314.0) - PRE-MARKET CONFIRMATORY BULLISH SIGNAL FROM ITS ADR MARKET Tuesday November 07, 2023 06:11 GMT</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqljhxn:0</t>
+  </si>
+  <si>
+    <t>NS:GLOBUL</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM PRE-MARKET BULLISH STOCK SNIPPETS LONDON STOCK EXCHANGE GROUP (LSEG: GBX8,314.0) Tuesday November 07, 2023 06:11 GMT</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqljii0:0</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group's Earnings Growth Lags 3I Group</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqljcyu:0</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group continues to outperform Schroders</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqljd3i:0</t>
+  </si>
+  <si>
+    <t>How London Stock Exchange Group's dividend compares to Intermediate Capital</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqljchb:0</t>
+  </si>
+  <si>
+    <t>Hargreaves Lansdown's Earnings Growth Lags London Stock Exchange Group</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqlif88:0</t>
+  </si>
+  <si>
+    <t>Close Brothers's Earnings Growth Lags London Stock Exchange Group</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20231107:nNRAqliewr:0</t>
   </si>
 </sst>
 </file>
@@ -252,7 +249,7 @@
         <xdr:cNvPr id="3" name="MyPlot">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4FF73C-EEDB-EAC3-CDC3-C8DC2A6892FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4395D96-B02A-EB28-DCD7-ED76782AB2C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -583,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD63981-5CAB-455E-83CB-805B346D9EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1486732-1EB2-479B-A8D7-04925134B9E9}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -685,26 +682,26 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -712,10 +709,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -723,13 +720,13 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -740,15 +737,15 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -760,10 +757,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7520AD08-1635-4384-B4FB-F87CD556085A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91377A17-0F5E-4FDC-8289-C00E7D725E16}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/notebook/rdp_report.xlsx
+++ b/notebook/rdp_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{628560CA-6C98-4240-88AF-3E299BCCAFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78516EB-2CAE-482E-925D-CE38664C2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1545" windowWidth="22710" windowHeight="13275" xr2:uid="{C1C3D441-6D75-464C-A143-6D2C9D4C856A}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D15E6AB0-B74E-4B1D-90AD-F71615A5E6CE}"/>
   </bookViews>
   <sheets>
     <sheet name="LSEG.L News Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -78,70 +78,79 @@
     <t>sourceCode</t>
   </si>
   <si>
-    <t>London Stock Exchange Group continues to underperform Intermediate Capital</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqll2kb:0</t>
+    <t>Friday's Preview: Can London Stock Exchange Group rebound after being down?</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250214:nNRAvf0ije:0</t>
+  </si>
+  <si>
+    <t>NS:GLOSTO</t>
+  </si>
+  <si>
+    <t>Can London Stock Exchange rebound after recent dip?</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250214:nNRAvf0dpt:0</t>
+  </si>
+  <si>
+    <t>NS:GLOROU</t>
+  </si>
+  <si>
+    <t>Eutelsat Communications SA - Eutelsat Communications: Second Quarter and First Half 2024-25 Results</t>
+  </si>
+  <si>
+    <t>urn:newsml:reuters.com:20250214:nNDL9RpMVp:1</t>
+  </si>
+  <si>
+    <t>NS:PUBT</t>
+  </si>
+  <si>
+    <t>German trading: London Stock Exchange Group (LS4C: EUR142.0) decreases on average volume</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250214:nNRAveyqa5:0</t>
+  </si>
+  <si>
+    <t>NS:GERCOM</t>
+  </si>
+  <si>
+    <t>London Stock Exchange gains 7% in past 3 months</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250214:nNRAveyiha:0</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250213:nNRAvewq3s:0</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250213:nNRAvewre1:0</t>
+  </si>
+  <si>
+    <t>LSEG Expands Coverage of Tick History</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250213:nNRAvewag2:0</t>
+  </si>
+  <si>
+    <t>NS:MARUSA</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group (LSEG: GBX11,655.0) decreases GBX80.0, 2 days' volume in a day</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250213:nNRAvew4he:0</t>
   </si>
   <si>
     <t>NS:NEWMAR</t>
   </si>
   <si>
-    <t>London Stock Exchange Group continues to underperform M&amp;G</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqlk82m:0</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group's Earnings Growth Outperforms Hargreaves Lansdown</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqlk7t4:0</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group (LSEG: GBX8,314.0) - PRE-MARKET CONFIRMATORY BULLISH SIGNAL FROM ITS ADR MARKET Tuesday November 07, 2023 06:11 GMT</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqljhxn:0</t>
-  </si>
-  <si>
-    <t>NS:GLOBUL</t>
-  </si>
-  <si>
-    <t>UNITED KINGDOM PRE-MARKET BULLISH STOCK SNIPPETS LONDON STOCK EXCHANGE GROUP (LSEG: GBX8,314.0) Tuesday November 07, 2023 06:11 GMT</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqljii0:0</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group's Earnings Growth Lags 3I Group</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqljcyu:0</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group continues to outperform Schroders</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqljd3i:0</t>
-  </si>
-  <si>
-    <t>How London Stock Exchange Group's dividend compares to Intermediate Capital</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqljchb:0</t>
-  </si>
-  <si>
-    <t>Hargreaves Lansdown's Earnings Growth Lags London Stock Exchange Group</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqlif88:0</t>
-  </si>
-  <si>
-    <t>Close Brothers's Earnings Growth Lags London Stock Exchange Group</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20231107:nNRAqliewr:0</t>
+    <t>DJ Top 3% Stock Tradeweb Markets Aiming For A Fresh High -- IBD</t>
+  </si>
+  <si>
+    <t>urn:newsml:reuters.com:20250213:nDjc7fHX2j:2</t>
+  </si>
+  <si>
+    <t>NS:DJCP</t>
   </si>
 </sst>
 </file>
@@ -152,7 +161,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +169,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +177,7 @@
       <b/>
       <sz val="14"/>
       <color indexed="9"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,17 +248,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152421</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>166127</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="MyPlot">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4395D96-B02A-EB28-DCD7-ED76782AB2C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DBD2AF-1AB8-863B-5900-51DFC36803EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,8 +269,8 @@
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -271,8 +280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6524625"/>
-          <a:ext cx="10515621" cy="5500127"/>
+          <a:off x="609600" y="6263640"/>
+          <a:ext cx="12801600" cy="6400800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -295,39 +304,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -379,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,13 +499,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -505,6 +507,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -569,25 +578,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1486732-1EB2-479B-A8D7-04925134B9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F969712-E896-4C0A-98FB-CEC18AF5302C}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -612,7 +641,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -641,7 +670,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -652,7 +681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -660,65 +689,65 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -726,29 +755,29 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -757,14 +786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91377A17-0F5E-4FDC-8289-C00E7D725E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D72CA6F-7E1B-40C3-97FA-9F0C22605176}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -776,7 +805,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -802,784 +831,784 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45120</v>
+        <v>45581</v>
       </c>
       <c r="B3">
-        <v>8092</v>
+        <v>10320</v>
       </c>
       <c r="C3">
-        <v>8094</v>
+        <v>10325</v>
       </c>
       <c r="D3">
-        <v>8018</v>
+        <v>10280</v>
       </c>
       <c r="E3">
-        <v>8108</v>
+        <v>10370</v>
       </c>
       <c r="F3">
-        <v>7970</v>
+        <v>10280</v>
       </c>
       <c r="G3">
-        <v>7987.6666299999997</v>
+        <v>10280</v>
       </c>
       <c r="H3">
-        <v>3731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45121</v>
+        <v>45582</v>
       </c>
       <c r="B4">
-        <v>8288</v>
+        <v>10490</v>
       </c>
       <c r="C4">
-        <v>8290</v>
+        <v>10495</v>
       </c>
       <c r="D4">
-        <v>8070</v>
+        <v>10350</v>
       </c>
       <c r="E4">
-        <v>8318</v>
+        <v>10520</v>
       </c>
       <c r="F4">
-        <v>8070</v>
+        <v>10340</v>
       </c>
       <c r="G4">
-        <v>8070</v>
+        <v>10448.379999999999</v>
       </c>
       <c r="H4">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45124</v>
+        <v>45583</v>
       </c>
       <c r="B5">
-        <v>8300</v>
+        <v>10530</v>
       </c>
       <c r="C5">
-        <v>8302</v>
+        <v>10535</v>
       </c>
       <c r="D5">
-        <v>8250</v>
+        <v>10410</v>
       </c>
       <c r="E5">
-        <v>8322</v>
+        <v>10535</v>
       </c>
       <c r="F5">
-        <v>8236</v>
+        <v>10365</v>
       </c>
       <c r="G5">
-        <v>8296</v>
+        <v>10410</v>
       </c>
       <c r="H5">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45125</v>
+        <v>45586</v>
       </c>
       <c r="B6">
-        <v>8306</v>
+        <v>10615</v>
       </c>
       <c r="C6">
-        <v>8308</v>
+        <v>10620</v>
       </c>
       <c r="D6">
-        <v>8344</v>
+        <v>10560</v>
       </c>
       <c r="E6">
-        <v>8344</v>
+        <v>10670</v>
       </c>
       <c r="F6">
-        <v>8266</v>
+        <v>10560</v>
       </c>
       <c r="G6">
-        <v>8308</v>
+        <v>10560</v>
       </c>
       <c r="H6">
-        <v>3379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45126</v>
+        <v>45587</v>
       </c>
       <c r="B7">
-        <v>8400</v>
+        <v>10515</v>
       </c>
       <c r="C7">
-        <v>8402</v>
+        <v>10520</v>
       </c>
       <c r="D7">
-        <v>8352</v>
+        <v>10585</v>
       </c>
       <c r="E7">
-        <v>8454</v>
+        <v>10600</v>
       </c>
       <c r="F7">
-        <v>8342</v>
+        <v>10440</v>
       </c>
       <c r="G7">
-        <v>8352</v>
+        <v>10505</v>
       </c>
       <c r="H7">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45127</v>
+        <v>45588</v>
       </c>
       <c r="B8">
-        <v>8420</v>
+        <v>10385</v>
       </c>
       <c r="C8">
-        <v>8422</v>
+        <v>10395</v>
       </c>
       <c r="D8">
-        <v>8384</v>
+        <v>10465</v>
       </c>
       <c r="E8">
-        <v>8452</v>
+        <v>10505</v>
       </c>
       <c r="F8">
-        <v>8354</v>
+        <v>10380</v>
       </c>
       <c r="G8">
-        <v>8384</v>
+        <v>10402.14</v>
       </c>
       <c r="H8">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>45128</v>
+        <v>45589</v>
       </c>
       <c r="B9">
-        <v>8312</v>
+        <v>10655</v>
       </c>
       <c r="C9">
-        <v>8314</v>
+        <v>10660</v>
       </c>
       <c r="D9">
-        <v>8426</v>
+        <v>10425</v>
       </c>
       <c r="E9">
-        <v>8434</v>
+        <v>10830</v>
       </c>
       <c r="F9">
-        <v>8300</v>
+        <v>10420</v>
       </c>
       <c r="G9">
-        <v>8426</v>
+        <v>10655</v>
       </c>
       <c r="H9">
-        <v>4607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>45131</v>
+        <v>45590</v>
       </c>
       <c r="B10">
-        <v>8344</v>
+        <v>10605</v>
       </c>
       <c r="C10">
-        <v>8346</v>
+        <v>10610</v>
       </c>
       <c r="D10">
-        <v>8300</v>
+        <v>10640</v>
       </c>
       <c r="E10">
-        <v>8406</v>
+        <v>10695</v>
       </c>
       <c r="F10">
-        <v>8300</v>
+        <v>10600</v>
       </c>
       <c r="G10">
-        <v>8354</v>
+        <v>10644.57</v>
       </c>
       <c r="H10">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>45132</v>
+        <v>45593</v>
       </c>
       <c r="B11">
-        <v>8398</v>
+        <v>10710</v>
       </c>
       <c r="C11">
-        <v>8402</v>
+        <v>10715</v>
       </c>
       <c r="D11">
-        <v>8328</v>
+        <v>10615</v>
       </c>
       <c r="E11">
-        <v>8418</v>
+        <v>10735</v>
       </c>
       <c r="F11">
-        <v>8270</v>
+        <v>10605</v>
       </c>
       <c r="G11">
-        <v>8328</v>
+        <v>10615.349130000001</v>
       </c>
       <c r="H11">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>45133</v>
+        <v>45594</v>
       </c>
       <c r="B12">
-        <v>8466</v>
+        <v>10595</v>
       </c>
       <c r="C12">
-        <v>8468</v>
+        <v>10600</v>
       </c>
       <c r="D12">
-        <v>8416</v>
+        <v>10745</v>
       </c>
       <c r="E12">
-        <v>8468</v>
+        <v>10760</v>
       </c>
       <c r="F12">
-        <v>8372</v>
+        <v>10580</v>
       </c>
       <c r="G12">
-        <v>8452</v>
+        <v>10745</v>
       </c>
       <c r="H12">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>45134</v>
+        <v>45595</v>
       </c>
       <c r="B13">
-        <v>8474</v>
+        <v>10545</v>
       </c>
       <c r="C13">
-        <v>8476</v>
+        <v>10550</v>
       </c>
       <c r="D13">
-        <v>8484</v>
+        <v>10545</v>
       </c>
       <c r="E13">
-        <v>8558</v>
+        <v>10605</v>
       </c>
       <c r="F13">
-        <v>8430</v>
+        <v>10490</v>
       </c>
       <c r="G13">
-        <v>8484</v>
+        <v>10545.611569999999</v>
       </c>
       <c r="H13">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>45135</v>
+        <v>45596</v>
       </c>
       <c r="B14">
-        <v>8526</v>
+        <v>10510</v>
       </c>
       <c r="C14">
-        <v>8528</v>
+        <v>10515</v>
       </c>
       <c r="D14">
-        <v>8464</v>
+        <v>10480</v>
       </c>
       <c r="E14">
-        <v>8564</v>
+        <v>10535</v>
       </c>
       <c r="F14">
-        <v>8464</v>
+        <v>10405</v>
       </c>
       <c r="G14">
-        <v>8528</v>
+        <v>10503.1</v>
       </c>
       <c r="H14">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>45138</v>
+        <v>45597</v>
       </c>
       <c r="B15">
-        <v>8462</v>
+        <v>10745</v>
       </c>
       <c r="C15">
-        <v>8464</v>
+        <v>10750</v>
       </c>
       <c r="D15">
-        <v>8518</v>
+        <v>10530</v>
       </c>
       <c r="E15">
-        <v>8536</v>
+        <v>10765</v>
       </c>
       <c r="F15">
-        <v>8450</v>
+        <v>10480</v>
       </c>
       <c r="G15">
-        <v>8458</v>
+        <v>10750</v>
       </c>
       <c r="H15">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>45139</v>
+        <v>45600</v>
       </c>
       <c r="B16">
-        <v>8344</v>
+        <v>10810</v>
       </c>
       <c r="C16">
-        <v>8346</v>
+        <v>10815</v>
       </c>
       <c r="D16">
-        <v>8448</v>
+        <v>10740</v>
       </c>
       <c r="E16">
-        <v>8484</v>
+        <v>10885</v>
       </c>
       <c r="F16">
-        <v>8278</v>
+        <v>10740</v>
       </c>
       <c r="G16">
-        <v>8336</v>
+        <v>10810</v>
       </c>
       <c r="H16">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>45140</v>
+        <v>45601</v>
       </c>
       <c r="B17">
-        <v>8284</v>
+        <v>10880</v>
       </c>
       <c r="C17">
-        <v>8286</v>
+        <v>10885</v>
       </c>
       <c r="D17">
-        <v>8248</v>
+        <v>10810</v>
       </c>
       <c r="E17">
-        <v>8308</v>
+        <v>10935</v>
       </c>
       <c r="F17">
-        <v>8176</v>
+        <v>10745</v>
       </c>
       <c r="G17">
-        <v>8262</v>
+        <v>10867.9004</v>
       </c>
       <c r="H17">
-        <v>4025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>45141</v>
+        <v>45602</v>
       </c>
       <c r="B18">
-        <v>8186</v>
+        <v>10870</v>
       </c>
       <c r="C18">
-        <v>8188</v>
+        <v>10880</v>
       </c>
       <c r="D18">
-        <v>7916</v>
+        <v>10985</v>
       </c>
       <c r="E18">
-        <v>8210</v>
+        <v>11065</v>
       </c>
       <c r="F18">
-        <v>7784</v>
+        <v>10785</v>
       </c>
       <c r="G18">
-        <v>8174</v>
+        <v>10870</v>
       </c>
       <c r="H18">
-        <v>10781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>45142</v>
+        <v>45603</v>
       </c>
       <c r="B19">
-        <v>8138</v>
+        <v>10765</v>
       </c>
       <c r="C19">
-        <v>8140</v>
+        <v>10775</v>
       </c>
       <c r="D19">
-        <v>8140</v>
+        <v>10880</v>
       </c>
       <c r="E19">
-        <v>8216</v>
+        <v>10915</v>
       </c>
       <c r="F19">
-        <v>8040</v>
+        <v>10755</v>
       </c>
       <c r="G19">
-        <v>8146</v>
+        <v>10880</v>
       </c>
       <c r="H19">
-        <v>4672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>45145</v>
+        <v>45604</v>
       </c>
       <c r="B20">
-        <v>8206</v>
+        <v>10745</v>
       </c>
       <c r="C20">
-        <v>8208</v>
+        <v>10750</v>
       </c>
       <c r="D20">
-        <v>8100</v>
+        <v>10785</v>
       </c>
       <c r="E20">
-        <v>8218</v>
+        <v>10820</v>
       </c>
       <c r="F20">
-        <v>8100</v>
+        <v>10690</v>
       </c>
       <c r="G20">
-        <v>8211</v>
+        <v>10745</v>
       </c>
       <c r="H20">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>45146</v>
+        <v>45607</v>
       </c>
       <c r="B21">
-        <v>8270</v>
+        <v>10810</v>
       </c>
       <c r="C21">
-        <v>8274</v>
+        <v>10815</v>
       </c>
       <c r="D21">
-        <v>8204</v>
+        <v>10760</v>
       </c>
       <c r="E21">
-        <v>8356</v>
+        <v>10835</v>
       </c>
       <c r="F21">
-        <v>8204</v>
+        <v>10710</v>
       </c>
       <c r="G21">
-        <v>8274</v>
+        <v>10810</v>
       </c>
       <c r="H21">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>45147</v>
+        <v>45608</v>
       </c>
       <c r="B22">
-        <v>8254</v>
+        <v>10595</v>
       </c>
       <c r="C22">
-        <v>8256</v>
+        <v>10600</v>
       </c>
       <c r="D22">
-        <v>8344</v>
+        <v>10795</v>
       </c>
       <c r="E22">
-        <v>8348</v>
+        <v>10795</v>
       </c>
       <c r="F22">
-        <v>8200</v>
+        <v>10550</v>
       </c>
       <c r="G22">
-        <v>8344</v>
+        <v>10613.960660000001</v>
       </c>
       <c r="H22">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>45148</v>
+        <v>45609</v>
       </c>
       <c r="B23">
-        <v>8352</v>
+        <v>10660</v>
       </c>
       <c r="C23">
-        <v>8354</v>
+        <v>10665</v>
       </c>
       <c r="D23">
-        <v>8282</v>
+        <v>10535</v>
       </c>
       <c r="E23">
-        <v>8362</v>
+        <v>10660</v>
       </c>
       <c r="F23">
-        <v>8270</v>
+        <v>10485</v>
       </c>
       <c r="G23">
-        <v>8328.4864899999993</v>
+        <v>10660</v>
       </c>
       <c r="H23">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>45149</v>
+        <v>45610</v>
       </c>
       <c r="B24">
-        <v>8268</v>
+        <v>10640</v>
       </c>
       <c r="C24">
-        <v>8270</v>
+        <v>10645</v>
       </c>
       <c r="D24">
-        <v>8332</v>
+        <v>10685</v>
       </c>
       <c r="E24">
-        <v>8336</v>
+        <v>10715</v>
       </c>
       <c r="F24">
-        <v>8246</v>
+        <v>10600</v>
       </c>
       <c r="G24">
-        <v>8276</v>
+        <v>10634.68</v>
       </c>
       <c r="H24">
-        <v>3583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>45152</v>
+        <v>45611</v>
       </c>
       <c r="B25">
-        <v>8290</v>
+        <v>10635</v>
       </c>
       <c r="C25">
-        <v>8292</v>
+        <v>10640</v>
       </c>
       <c r="D25">
-        <v>8292</v>
+        <v>10630</v>
       </c>
       <c r="E25">
-        <v>8320</v>
+        <v>10650</v>
       </c>
       <c r="F25">
-        <v>8236</v>
+        <v>10550</v>
       </c>
       <c r="G25">
-        <v>8288</v>
+        <v>10634.5753</v>
       </c>
       <c r="H25">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>45153</v>
+        <v>45614</v>
       </c>
       <c r="B26">
-        <v>8198</v>
+        <v>10710</v>
       </c>
       <c r="C26">
-        <v>8200</v>
+        <v>10715</v>
       </c>
       <c r="D26">
-        <v>8268</v>
+        <v>10640</v>
       </c>
       <c r="E26">
-        <v>8278</v>
+        <v>10715</v>
       </c>
       <c r="F26">
-        <v>8186</v>
+        <v>10550</v>
       </c>
       <c r="G26">
-        <v>8210.6666700000005</v>
+        <v>10700</v>
       </c>
       <c r="H26">
-        <v>4732</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>45154</v>
+        <v>45615</v>
       </c>
       <c r="B27">
-        <v>8158</v>
+        <v>10725</v>
       </c>
       <c r="C27">
-        <v>8160</v>
+        <v>10730</v>
       </c>
       <c r="D27">
-        <v>8154</v>
+        <v>10740</v>
       </c>
       <c r="E27">
-        <v>8208</v>
+        <v>10815</v>
       </c>
       <c r="F27">
-        <v>8138</v>
+        <v>10695</v>
       </c>
       <c r="G27">
-        <v>8168</v>
+        <v>10720</v>
       </c>
       <c r="H27">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>45155</v>
+        <v>45616</v>
       </c>
       <c r="B28">
-        <v>8074</v>
+        <v>10900</v>
       </c>
       <c r="C28">
-        <v>8076</v>
+        <v>10905</v>
       </c>
       <c r="D28">
-        <v>8112</v>
+        <v>10710</v>
       </c>
       <c r="E28">
-        <v>8160</v>
+        <v>10925</v>
       </c>
       <c r="F28">
-        <v>8074</v>
+        <v>10685</v>
       </c>
       <c r="G28">
-        <v>8076</v>
+        <v>10907.5</v>
       </c>
       <c r="H28">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45156</v>
+        <v>45617</v>
       </c>
       <c r="B29">
-        <v>8038</v>
+        <v>11005</v>
       </c>
       <c r="C29">
-        <v>8040</v>
+        <v>11010</v>
       </c>
       <c r="D29">
-        <v>8052</v>
+        <v>10930</v>
       </c>
       <c r="E29">
-        <v>8070</v>
+        <v>11030</v>
       </c>
       <c r="F29">
-        <v>7988</v>
+        <v>10890</v>
       </c>
       <c r="G29">
-        <v>8038</v>
+        <v>10930</v>
       </c>
       <c r="H29">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45159</v>
+        <v>45618</v>
       </c>
       <c r="B30">
-        <v>8066</v>
+        <v>11100</v>
       </c>
       <c r="C30">
-        <v>8068</v>
+        <v>11105</v>
       </c>
       <c r="D30">
-        <v>8046</v>
+        <v>11090</v>
       </c>
       <c r="E30">
-        <v>8068</v>
+        <v>11115</v>
       </c>
       <c r="F30">
-        <v>8016</v>
+        <v>11010</v>
       </c>
       <c r="G30">
-        <v>8046</v>
+        <v>11105</v>
       </c>
       <c r="H30">
-        <v>4832</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45160</v>
+        <v>45621</v>
       </c>
       <c r="B31">
-        <v>8040</v>
+        <v>11215</v>
       </c>
       <c r="C31">
-        <v>8042</v>
+        <v>11245</v>
       </c>
       <c r="D31">
-        <v>8106</v>
+        <v>11140</v>
       </c>
       <c r="E31">
-        <v>8120</v>
+        <v>11245</v>
       </c>
       <c r="F31">
-        <v>8004</v>
+        <v>11140</v>
       </c>
       <c r="G31">
-        <v>8106</v>
+        <v>11225</v>
       </c>
       <c r="H31">
-        <v>3840</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45161</v>
+        <v>45622</v>
       </c>
       <c r="B32">
-        <v>8126</v>
+        <v>11195</v>
       </c>
       <c r="C32">
-        <v>8128</v>
+        <v>11200</v>
       </c>
       <c r="D32">
-        <v>8026</v>
+        <v>11210</v>
       </c>
       <c r="E32">
-        <v>8132</v>
+        <v>11265</v>
       </c>
       <c r="F32">
-        <v>8012</v>
+        <v>11152.5</v>
       </c>
       <c r="G32">
-        <v>8114</v>
+        <v>11200</v>
       </c>
       <c r="H32">
-        <v>2022</v>
+        <v>2668</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/rdp_report.xlsx
+++ b/notebook/rdp_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_rdlib_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B78516EB-2CAE-482E-925D-CE38664C2149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0103D0F-209E-4822-BA9B-8DBB29F8C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D15E6AB0-B74E-4B1D-90AD-F71615A5E6CE}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{69CDFB20-E47F-4E80-83C9-1B1B49D34894}"/>
   </bookViews>
   <sheets>
     <sheet name="LSEG.L News Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -78,79 +78,67 @@
     <t>sourceCode</t>
   </si>
   <si>
-    <t>Friday's Preview: Can London Stock Exchange Group rebound after being down?</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250214:nNRAvf0ije:0</t>
-  </si>
-  <si>
-    <t>NS:GLOSTO</t>
-  </si>
-  <si>
-    <t>Can London Stock Exchange rebound after recent dip?</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250214:nNRAvf0dpt:0</t>
+    <t>London Stock Exchange adds 7% in past 3 months</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh4s9x:0</t>
   </si>
   <si>
     <t>NS:GLOROU</t>
   </si>
   <si>
-    <t>Eutelsat Communications SA - Eutelsat Communications: Second Quarter and First Half 2024-25 Results</t>
-  </si>
-  <si>
-    <t>urn:newsml:reuters.com:20250214:nNDL9RpMVp:1</t>
+    <t>Past Week: London Stock Exchange Group (LSEG: GBX11,705.0) down 3.2% in 2 weeks; -GBX390 [-3.2%]</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh4r8b:0</t>
+  </si>
+  <si>
+    <t>NS:NEWMAR</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh4rs9:0</t>
+  </si>
+  <si>
+    <t>London Stock Exchange Group (LSEG: GBX11,705.0) strengthens above moving average price; +GBX15 [+0.1%] Vol Index 1.2 [1 is avg]</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh4pmn:0</t>
+  </si>
+  <si>
+    <t>Wednesday's Preview: Can London Stock Exchange continue its recent gains?</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh3052:0</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh2j9x:0</t>
+  </si>
+  <si>
+    <t>Traders look to see if London Stock Exchange's recent rally will continue</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh2edj:0</t>
+  </si>
+  <si>
+    <t>German trading: London Stock Exchange Group (LS4C: EUR141.0) drops 1.4% on slipping relative strength; -EUR2 [-1.4%]</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh262u:0</t>
+  </si>
+  <si>
+    <t>NS:GERCOM</t>
+  </si>
+  <si>
+    <t>urn:newsml:newsroom:20250219:nNRAvh1rf1:0</t>
+  </si>
+  <si>
+    <t>LSEG - Sustainability Policy 210.0KB • PDF</t>
+  </si>
+  <si>
+    <t>urn:newsml:reuters.com:20250219:nNDL2MpB1y:1</t>
   </si>
   <si>
     <t>NS:PUBT</t>
-  </si>
-  <si>
-    <t>German trading: London Stock Exchange Group (LS4C: EUR142.0) decreases on average volume</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250214:nNRAveyqa5:0</t>
-  </si>
-  <si>
-    <t>NS:GERCOM</t>
-  </si>
-  <si>
-    <t>London Stock Exchange gains 7% in past 3 months</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250214:nNRAveyiha:0</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250213:nNRAvewq3s:0</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250213:nNRAvewre1:0</t>
-  </si>
-  <si>
-    <t>LSEG Expands Coverage of Tick History</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250213:nNRAvewag2:0</t>
-  </si>
-  <si>
-    <t>NS:MARUSA</t>
-  </si>
-  <si>
-    <t>London Stock Exchange Group (LSEG: GBX11,655.0) decreases GBX80.0, 2 days' volume in a day</t>
-  </si>
-  <si>
-    <t>urn:newsml:newsroom:20250213:nNRAvew4he:0</t>
-  </si>
-  <si>
-    <t>NS:NEWMAR</t>
-  </si>
-  <si>
-    <t>DJ Top 3% Stock Tradeweb Markets Aiming For A Fresh High -- IBD</t>
-  </si>
-  <si>
-    <t>urn:newsml:reuters.com:20250213:nDjc7fHX2j:2</t>
-  </si>
-  <si>
-    <t>NS:DJCP</t>
   </si>
 </sst>
 </file>
@@ -258,7 +246,7 @@
         <xdr:cNvPr id="3" name="MyPlot">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DBD2AF-1AB8-863B-5900-51DFC36803EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF33C72-67F5-7CAD-D399-EFFE1FCD5B00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,7 +597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F969712-E896-4C0A-98FB-CEC18AF5302C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB34DB2D-A7C7-4D6F-A9C2-21BBBEF6E9F7}">
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -694,46 +682,46 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -741,43 +729,43 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -786,10 +774,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D72CA6F-7E1B-40C3-97FA-9F0C22605176}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86489108-D1C7-4ABE-98DD-838F517E6775}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1613,7 +1601,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>